--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -540,40 +540,40 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N2">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q2">
-        <v>1.170995011866445</v>
+        <v>0.5906116677208889</v>
       </c>
       <c r="R2">
-        <v>10.538955106798</v>
+        <v>5.315505009488001</v>
       </c>
       <c r="S2">
-        <v>0.009670036160121756</v>
+        <v>0.0043872114682169</v>
       </c>
       <c r="T2">
-        <v>0.009670036160121754</v>
+        <v>0.004387211468216901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>31.859554</v>
       </c>
       <c r="O3">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P3">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q3">
         <v>97.24554678537912</v>
@@ -632,10 +632,10 @@
         <v>875.2099210684121</v>
       </c>
       <c r="S3">
-        <v>0.8030503497419507</v>
+        <v>0.7223642901200832</v>
       </c>
       <c r="T3">
-        <v>0.8030503497419507</v>
+        <v>0.7223642901200834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N4">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q4">
-        <v>18.98156172861934</v>
+        <v>32.66182089167668</v>
       </c>
       <c r="R4">
-        <v>170.834055557574</v>
+        <v>293.9563880250901</v>
       </c>
       <c r="S4">
-        <v>0.1567490778622265</v>
+        <v>0.2426201902542302</v>
       </c>
       <c r="T4">
-        <v>0.1567490778622265</v>
+        <v>0.2426201902542302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N5">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O5">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P5">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q5">
-        <v>0.03687697960366667</v>
+        <v>0.01866099073511111</v>
       </c>
       <c r="R5">
-        <v>0.331892816433</v>
+        <v>0.167948916616</v>
       </c>
       <c r="S5">
-        <v>0.0003045288174841522</v>
+        <v>0.0001386185154067406</v>
       </c>
       <c r="T5">
-        <v>0.0003045288174841522</v>
+        <v>0.0001386185154067406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>31.859554</v>
       </c>
       <c r="O6">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P6">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q6">
-        <v>3.062457148844667</v>
+        <v>3.072574327214889</v>
       </c>
       <c r="R6">
-        <v>27.562114339602</v>
+        <v>27.653168944934</v>
       </c>
       <c r="S6">
-        <v>0.02528966483038176</v>
+        <v>0.02282385205379379</v>
       </c>
       <c r="T6">
-        <v>0.02528966483038176</v>
+        <v>0.0228238520537938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N7">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O7">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P7">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q7">
-        <v>0.597767417981</v>
+        <v>1.031984246778334</v>
       </c>
       <c r="R7">
-        <v>5.379906761829</v>
+        <v>9.287858221005001</v>
       </c>
       <c r="S7">
-        <v>0.004936342587835174</v>
+        <v>0.007665837588269091</v>
       </c>
       <c r="T7">
-        <v>0.004936342587835174</v>
+        <v>0.007665837588269091</v>
       </c>
     </row>
   </sheetData>
